--- a/catalog_physio_20181129.xlsx
+++ b/catalog_physio_20181129.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edooby\Documents\GitHub\ITL\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6566321A-5822-439C-96A5-4B3626292EF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5DD252-79FF-4BE5-BE2B-58444B1F645D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_physio_20181129" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="CHATTANOOGA ITL" sheetId="1" r:id="rId2"/>
+    <sheet name="CHATTANOOGA PHYSIO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">catalog_physio_20181129!$A$1:$F$91</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">catalog_physio_20181129!$A$1:$E$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +36,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - catalog_physio" description="Connexion à la requête « catalog_physio » dans le classeur." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - catalog_physio" description="Connexion à la requête « catalog_physio » dans le classeur." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=catalog_physio;Extended Properties=&quot;&quot;" command="SELECT * FROM [catalog_physio]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="343">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +61,6 @@
     <t>prix</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>GLOBUS Elite</t>
   </si>
   <si>
@@ -75,9 +73,6 @@
     <t>249</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>GLOBUS Duo Pro</t>
   </si>
   <si>
@@ -583,13 +578,508 @@
   </si>
   <si>
     <t>1990</t>
+  </si>
+  <si>
+    <t>GENERIQUE Kit Ceinture Abdominale Fastband</t>
+  </si>
+  <si>
+    <t>Accessoires Divers</t>
+  </si>
+  <si>
+    <t>COMPEX Stylo recherche Point Moteur COMPEX</t>
+  </si>
+  <si>
+    <t>24.95</t>
+  </si>
+  <si>
+    <t>GENERIQUE Kit Lipolyse/Drainage Jambes</t>
+  </si>
+  <si>
+    <t>GENERIQUE Stylo Recherche Point Moteur</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>GENERIQUE Kit Jambes et Cuisses Fastpad</t>
+  </si>
+  <si>
+    <t>GENERIQUE Sangle de maintien 60x10cm</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>GENERIQUE Sangle de maintien 100x10cm</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Sacoche de transport CefarCompex</t>
+  </si>
+  <si>
+    <t>GENERIQUE Bacs hyperhydrose (x2)</t>
+  </si>
+  <si>
+    <t>GPN-HYP</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Electrodes vacuum de 90 mm (unité)</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Câble 1/2 pour électrodes vacuum N...</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Câble 3/4 pour électrodes vacuum (...</t>
+  </si>
+  <si>
+    <t>COMPEX Coque noire pour Fit 5.0, SP 6.0, SP 8.0</t>
+  </si>
+  <si>
+    <t>COMPEX Mallette pour station de charge</t>
+  </si>
+  <si>
+    <t>49.9</t>
+  </si>
+  <si>
+    <t>COMPEX Bandes de maintien (x4)</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>COMPEX Pochette souple COMPEX</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Kit électrodes Vacuum 30 mm (x4)</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Kit électrodes Vacuum 90 mm (x4)</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Kit éponges Vacuum de 90 mm (X4)</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Kit éponges Vacuum de 30 mm (X4)</t>
+  </si>
+  <si>
+    <t>COLSON Mallette Baléares</t>
+  </si>
+  <si>
+    <t>COLSON</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Compex Pro Rehab</t>
+  </si>
+  <si>
+    <t>Douleurs et rééducation</t>
+  </si>
+  <si>
+    <t>CH-EL-2533110</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Compex Pro Physio</t>
+  </si>
+  <si>
+    <t>CH-EL-2535110</t>
+  </si>
+  <si>
+    <t>CEFAR Primo Pro</t>
+  </si>
+  <si>
+    <t>CE-PRP</t>
+  </si>
+  <si>
+    <t>CEFAR Empi Direct Tens</t>
+  </si>
+  <si>
+    <t>CC-DTNS</t>
+  </si>
+  <si>
+    <t>CEFAR Rehab X2</t>
+  </si>
+  <si>
+    <t>CE-RX2</t>
+  </si>
+  <si>
+    <t>COMPEX Theta 500</t>
+  </si>
+  <si>
+    <t>CO-EL-2520160</t>
+  </si>
+  <si>
+    <t>GLOBUS Genesy 3000</t>
+  </si>
+  <si>
+    <t>GL-GEN3000</t>
+  </si>
+  <si>
+    <t>SCHWA MEDICO TENS ECO 2</t>
+  </si>
+  <si>
+    <t>SM-TE2-104062</t>
+  </si>
+  <si>
+    <t>GLOBUS Genesy SII</t>
+  </si>
+  <si>
+    <t>GL-GSII</t>
+  </si>
+  <si>
+    <t>GLOBUS Genesy 600</t>
+  </si>
+  <si>
+    <t>GL-GNY600</t>
+  </si>
+  <si>
+    <t>GLOBUS Duo Tens</t>
+  </si>
+  <si>
+    <t>GL-DT</t>
+  </si>
+  <si>
+    <t>GLOBUS Genesy 1500</t>
+  </si>
+  <si>
+    <t>GL-GNY1500</t>
+  </si>
+  <si>
+    <t>CEFAR Empi Phoenix</t>
+  </si>
+  <si>
+    <t>CE-EP</t>
+  </si>
+  <si>
+    <t>VEINOPLUS Veinoplus V.I.</t>
+  </si>
+  <si>
+    <t>VEI-34010488831</t>
+  </si>
+  <si>
+    <t>VEINOPLUS Veinoplus Back</t>
+  </si>
+  <si>
+    <t>VEI-34010401865</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Compex Pro - Theta</t>
+  </si>
+  <si>
+    <t>CH-EL-2534810</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Compex Wireless Pro 2 CH</t>
+  </si>
+  <si>
+    <t>CH-EL-2532660</t>
+  </si>
+  <si>
+    <t>GLOBUS Genesy 300 pro</t>
+  </si>
+  <si>
+    <t>GL-G3222</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Compex Wireless Pro 4 CH</t>
+  </si>
+  <si>
+    <t>CH-EL-2532119</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Compex Wireless Pro 2 CH Standard ...</t>
+  </si>
+  <si>
+    <t>CH-EL-2532660-REC</t>
+  </si>
+  <si>
+    <t>GLOBUS Câbles bifurcateurs SPLIT 4CH</t>
+  </si>
+  <si>
+    <t>Câbles et adaptateurs</t>
+  </si>
+  <si>
+    <t>GLOBUS</t>
+  </si>
+  <si>
+    <t>GLOBUS Câble d'origine Globus 2 CH Bleu Avant ...</t>
+  </si>
+  <si>
+    <t>CEFAR Câble bifurcateur Slim8 / SlimFirst</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>COMPEX Câble à l'unité pour Compex Série 1</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>COMPEX Câble à l'unité pour Compex Mi Old</t>
+  </si>
+  <si>
+    <t>GLOBUS Câble bipolaire GLOBUS 4 Canaux</t>
+  </si>
+  <si>
+    <t>CEFAR Cables bipolaires Activ XT, Myo XT</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>COMPEX Câble à l'unité pour Compex Série 2/3</t>
+  </si>
+  <si>
+    <t>COMPEX Câble à l'unité pour Compex Série 4</t>
+  </si>
+  <si>
+    <t>COMPEX Câble à l'unité pour Compex Série 5</t>
+  </si>
+  <si>
+    <t>CEFAR Câble bipolaire pour CEFAR Easy</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>CEFAR Câble bipolaire pour Slim 8 et SlimFirst</t>
+  </si>
+  <si>
+    <t>GLOBUS 2 Câbles raccords bifurcateurs</t>
+  </si>
+  <si>
+    <t>COMPEX Câble mi-SENSOR Série 5</t>
+  </si>
+  <si>
+    <t>COMPEX Adaptateurs Snap - Fil (par paire)</t>
+  </si>
+  <si>
+    <t>CEFAR Câble bipolaire Myotrac Infinity</t>
+  </si>
+  <si>
+    <t>NEUROTRAC Câble bipolaire Neurotrac ETS</t>
+  </si>
+  <si>
+    <t>NEUROTRAC</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>NEUROTRAC Câble biofeedback Neurotrac ETS</t>
+  </si>
+  <si>
+    <t>CEFAR Câble bipolaire 2481 à l'unité</t>
+  </si>
+  <si>
+    <t>COMPEX Câble Empi Direct Tens</t>
+  </si>
+  <si>
+    <t>SPORECUP Cable bipolaire SPORECUP pour XTR2, T...</t>
+  </si>
+  <si>
+    <t>SPORECUP</t>
+  </si>
+  <si>
+    <t>COMPEX Jeu de 4 câbles pour Compex Mi Old</t>
+  </si>
+  <si>
+    <t>COMPEX Jeu de 4 câbles bipolaires Série 5</t>
+  </si>
+  <si>
+    <t>COMPEX Jeu de 4 câbles pour Compex Série 4</t>
+  </si>
+  <si>
+    <t>COMPEX Jeu de 4 câbles bipolaires Série 2/3</t>
+  </si>
+  <si>
+    <t>CEFAR Jeu de 4 Câbles bipolaires 2481</t>
+  </si>
+  <si>
+    <t>CEFAR Câble bipolaire pour les Cefar X2 et Pri...</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Câbles Stim Intelect Mobile</t>
+  </si>
+  <si>
+    <t>SPORECUP Cable bipolaire SPORECUP pour Tens Do...</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA Câble adaptateur 2 fiches bananes ...</t>
+  </si>
+  <si>
+    <t>CEFAR Chargeur Cefar Rehab X4</t>
+  </si>
+  <si>
+    <t>Batteries et chargeurs</t>
+  </si>
+  <si>
+    <t>CEFAR Batterie pour Myo 4, Rehab 4 Pro, Cefar ...</t>
+  </si>
+  <si>
+    <t>GLOBUS Chargeur Globus pour appareil 4 canaux</t>
+  </si>
+  <si>
+    <t>GLOBUS Batterie Globus pour appareil 4 canaux</t>
+  </si>
+  <si>
+    <t>GENERIQUE Kit Chargeur universel + piles AA</t>
+  </si>
+  <si>
+    <t>GENERIQUE Piles rechargeables AA (4 piles)</t>
+  </si>
+  <si>
+    <t>GENERIQUE Piles rechargeables AAA (3 piles)</t>
+  </si>
+  <si>
+    <t>GENERIQUE Kit Chargeur universel + piles AAA</t>
+  </si>
+  <si>
+    <t>CEFAR Batterie pour Activ X4 et Rehab X4</t>
+  </si>
+  <si>
+    <t>COMPEX Batterie 4 cellules 941.210</t>
+  </si>
+  <si>
+    <t>COMPEX Batterie 6 cellules 941.100</t>
+  </si>
+  <si>
+    <t>COMPEX Chargeur 4 cellules 683 010</t>
+  </si>
+  <si>
+    <t>CEFAR Chargeur pour PHYSIO 4 et MYO</t>
+  </si>
+  <si>
+    <t>CEFAR Batterie pour PHYSIO 4 et MYO II</t>
+  </si>
+  <si>
+    <t>COMPEX Chargeur 6 cellules</t>
+  </si>
+  <si>
+    <t>GLOBUS Chargeur 4 canaux (110V)</t>
+  </si>
+  <si>
+    <t>GLOBUS Batterie Globus pour Magnum / Medisound...</t>
+  </si>
+  <si>
+    <t>COMPEX Batterie 4 cellules 941.213 pour Compex...</t>
+  </si>
+  <si>
+    <t>COMPEX Kit Chargeur externe de batterie</t>
+  </si>
+  <si>
+    <t>SPORECUP Batterie pour Tens eco 2, XTR2, EMP2 ...</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>GLOBUS Chargeur Globus Magnum XL pro / L, Phys...</t>
+  </si>
+  <si>
+    <t>GLOBUS Batterie Globus pour appareil 2 canaux</t>
+  </si>
+  <si>
+    <t>GLOBUS Chargeur Globus pour nouvel appareil 4 ...</t>
+  </si>
+  <si>
+    <t>SPORECUP Chargeur pour EMP2, TENS, Urostim, XT...</t>
+  </si>
+  <si>
+    <t>GLOBUS Batterie pour Globus Genesy 3000</t>
+  </si>
+  <si>
+    <t>GLOBUS Chargeur Globus pour Medisound Pro II /...</t>
+  </si>
+  <si>
+    <t>HPL7</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>COM6000</t>
+  </si>
+  <si>
+    <t>7491.00</t>
+  </si>
+  <si>
+    <t>RADIALES MOBILE RPW</t>
+  </si>
+  <si>
+    <t>COM0100</t>
+  </si>
+  <si>
+    <t>9165.00</t>
+  </si>
+  <si>
+    <t>Ondes de choc Focalisée INTELECT F-SW</t>
+  </si>
+  <si>
+    <t>21777.00</t>
+  </si>
+  <si>
+    <t>Ondes de choc radiale et infrason INTELECT RPW</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>Laserthérapie INTELECT VET</t>
+  </si>
+  <si>
+    <t>Laserthérapie Intelect Vet</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>LASER HAUTE PUISSANCE INTELECT® HPL15 (15W)</t>
+  </si>
+  <si>
+    <t>CH2979</t>
+  </si>
+  <si>
+    <t>15825.00</t>
+  </si>
+  <si>
+    <t>LASER HAUTE PUISSANCE INTELECT® HPL7 (7W)</t>
+  </si>
+  <si>
+    <t>7491.67</t>
+  </si>
+  <si>
+    <t>Table Traction Triton 3-M 2 roues</t>
+  </si>
+  <si>
+    <t>CH3263</t>
+  </si>
+  <si>
+    <t>1893.33</t>
+  </si>
+  <si>
+    <t>Ultrason Intelect mobile sur guéridon</t>
+  </si>
+  <si>
+    <t>1575.00</t>
+  </si>
+  <si>
+    <t>Intelect neo Ultrason + laser + électrostimula...</t>
+  </si>
+  <si>
+    <t>6360.00</t>
+  </si>
+  <si>
+    <t>Intelect neo Ultrason +électrostimulation 4 vo...</t>
+  </si>
+  <si>
+    <t>6097.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,13 +1094,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -625,18 +1133,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -663,30 +1185,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="nom" tableColumnId="2"/>
       <queryTableField id="3" name="categorie" tableColumnId="3"/>
       <queryTableField id="4" name="reference" tableColumnId="4"/>
       <queryTableField id="5" name="prix" tableColumnId="5"/>
-      <queryTableField id="6" name="Column1" tableColumnId="6"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="Column1"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="catalog_physio" displayName="catalog_physio" ref="A1:F91" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F91"/>
-  <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nom" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="categorie" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="reference" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" uniqueName="5" name="prix" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" uniqueName="6" name="Column1" queryTableFieldId="6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="catalog_physio" displayName="catalog_physio" ref="A1:E162" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="nom" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="categorie" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="reference" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="prix" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -988,10 +1511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1003,7 +1528,7 @@
     <col min="6" max="6" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,1796 +1544,3185 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3116</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>5884</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5889</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5893</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5931</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>5939</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>11066</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>222</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>223</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>227</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>21783</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>187</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>188</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>190</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>191</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>199</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>317</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>351</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>352</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>361</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>362</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>426</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1215</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>2542</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>2543</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>3169</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>3172</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>3474</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>3881</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>3883</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>4536</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>5926</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>6029</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>16778</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>16711</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>16773</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>19542</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>16789</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>16870</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>19555</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>16802</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>19558</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>16863</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>17684</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>7706</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>8689</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>8685</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>8692</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>1421</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>12735</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>10683</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>1420</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>9547</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>10689</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>10690</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>10591</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>10701</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>10612</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>1413</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>10655</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>10657</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>6283</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>10689</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>10690</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>10701</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>3006</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>3007</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>3005</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>17684</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>1527</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>2722</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>17577</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>17589</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>17651</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>17609</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>17681</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>17631</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>2558</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>2933</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>2643</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="C88" t="s">
         <v>179</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>131</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>194</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>221</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>278</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>373</v>
+      </c>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>664</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>3173</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>3881</v>
+      </c>
+      <c r="B97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>3883</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>6029</v>
+      </c>
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>6030</v>
+      </c>
+      <c r="B100" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>6207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>6208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>9865</v>
+      </c>
+      <c r="B103" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>10871</v>
+      </c>
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>10882</v>
+      </c>
+      <c r="B105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>10883</v>
+      </c>
+      <c r="B106" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" t="s">
+        <v>179</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>12466</v>
+      </c>
+      <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" t="s">
+        <v>71</v>
+      </c>
+      <c r="E107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>12467</v>
+      </c>
+      <c r="B108" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>12468</v>
+      </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" t="s">
+        <v>71</v>
+      </c>
+      <c r="E109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>12469</v>
+      </c>
+      <c r="B110" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" t="s">
+        <v>71</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>17426</v>
+      </c>
+      <c r="B111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>12033</v>
+      </c>
+      <c r="B112" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" t="s">
+        <v>209</v>
+      </c>
+      <c r="E112">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>12035</v>
+      </c>
+      <c r="B113" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" t="s">
+        <v>208</v>
+      </c>
+      <c r="D113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E113">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>206</v>
+      </c>
+      <c r="B114" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" t="s">
+        <v>208</v>
+      </c>
+      <c r="D114" t="s">
+        <v>213</v>
+      </c>
+      <c r="E114">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
+        <v>308</v>
+      </c>
+      <c r="B115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" t="s">
+        <v>215</v>
+      </c>
+      <c r="E115">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <v>406</v>
+      </c>
+      <c r="B116" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" t="s">
+        <v>217</v>
+      </c>
+      <c r="E116">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>410</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>419</v>
+      </c>
+      <c r="B118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" t="s">
+        <v>208</v>
+      </c>
+      <c r="D118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E118">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>423</v>
+      </c>
+      <c r="B119" t="s">
+        <v>222</v>
+      </c>
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" t="s">
+        <v>223</v>
+      </c>
+      <c r="E119">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>5883</v>
+      </c>
+      <c r="B120" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" t="s">
+        <v>208</v>
+      </c>
+      <c r="D120" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>5927</v>
+      </c>
+      <c r="B121" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" t="s">
+        <v>227</v>
+      </c>
+      <c r="E121">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>5930</v>
+      </c>
+      <c r="B122" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" t="s">
+        <v>229</v>
+      </c>
+      <c r="E122">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>5939</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>5982</v>
+      </c>
+      <c r="B124" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
+        <v>6039</v>
+      </c>
+      <c r="B125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" t="s">
+        <v>208</v>
+      </c>
+      <c r="D125" t="s">
+        <v>233</v>
+      </c>
+      <c r="E125">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <v>11064</v>
+      </c>
+      <c r="B126" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" t="s">
+        <v>208</v>
+      </c>
+      <c r="D126" t="s">
+        <v>235</v>
+      </c>
+      <c r="E126">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>11065</v>
+      </c>
+      <c r="B127" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" t="s">
+        <v>237</v>
+      </c>
+      <c r="E127">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>12034</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>12037</v>
+      </c>
+      <c r="B129" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" t="s">
+        <v>241</v>
+      </c>
+      <c r="E129">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>15752</v>
+      </c>
+      <c r="B130" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" t="s">
+        <v>243</v>
+      </c>
+      <c r="E130">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>17697</v>
+      </c>
+      <c r="B131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" t="s">
+        <v>245</v>
+      </c>
+      <c r="E131">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>22835</v>
+      </c>
+      <c r="B132" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" t="s">
+        <v>247</v>
+      </c>
+      <c r="E132">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="4">
+        <v>16</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E133" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="6">
+        <v>30</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E134" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="5">
+        <v>36</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="6">
+        <v>50</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="5">
+        <v>55</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="6">
+        <v>83</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E138" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="5">
+        <v>119</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="6">
+        <v>162</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="5">
+        <v>170</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="6">
+        <v>175</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="5">
+        <v>178</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="6">
+        <v>183</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E144" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="5">
+        <v>207</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E145" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="6">
+        <v>277</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="5">
+        <v>350</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="6">
+        <v>430</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E148" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="5">
+        <v>434</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="6">
+        <v>435</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E150" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="5">
+        <v>436</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E151" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="6">
+        <v>1530</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="5">
+        <v>3140</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E153" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="6">
+        <v>3142</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="5">
+        <v>3143</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="6">
+        <v>3144</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="5">
+        <v>3145</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="6">
+        <v>3146</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="5">
+        <v>3148</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E159" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="6">
+        <v>3451</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="5">
+        <v>3528</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E161" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="6">
+        <v>3560</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="4">
+        <v>59</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E163" s="4">
+        <v>62</v>
+      </c>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="7">
+        <v>60</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E164" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="4">
+        <v>196</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E165" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="7">
+        <v>197</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E166" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="4">
+        <v>200</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="7">
+        <v>224</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="4">
+        <v>225</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="7">
+        <v>232</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="4">
+        <v>355</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="7">
+        <v>363</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="4">
+        <v>364</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="7">
+        <v>366</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="4">
+        <v>438</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E175" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="7">
+        <v>439</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E176" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="4">
+        <v>442</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="7">
+        <v>445</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E178" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="4">
+        <v>446</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E179" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="7">
+        <v>3219</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="4">
+        <v>3313</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="7">
+        <v>3315</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="4">
+        <v>3784</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E183" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="7">
+        <v>9638</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E184" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="4">
+        <v>9640</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E185" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="7">
+        <v>9782</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E186" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="4">
+        <v>12760</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E187" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="7">
+        <v>20185</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E188" s="7">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2820,15 +4734,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="41.15625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4">
+        <v>21090</v>
+      </c>
+      <c r="F4">
+        <v>21090</v>
+      </c>
+      <c r="G4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5">
+        <v>2074</v>
+      </c>
+      <c r="F5">
+        <v>2074</v>
+      </c>
+      <c r="G5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>391</v>
+      </c>
+      <c r="C7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7">
+        <v>2979</v>
+      </c>
+      <c r="G7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>392</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8">
+        <v>2879</v>
+      </c>
+      <c r="F8">
+        <v>2879</v>
+      </c>
+      <c r="G8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9">
+        <v>4749</v>
+      </c>
+      <c r="G9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10">
+        <v>27800</v>
+      </c>
+      <c r="F10">
+        <v>27800</v>
+      </c>
+      <c r="G10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>471</v>
+      </c>
+      <c r="C11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="8">
+        <v>70005</v>
+      </c>
+      <c r="F11" s="8">
+        <v>70005</v>
+      </c>
+      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>472</v>
+      </c>
+      <c r="C12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="8">
+        <v>70004</v>
+      </c>
+      <c r="F12" s="8">
+        <v>70004</v>
+      </c>
+      <c r="G12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75C02C4-8D91-4A79-84FB-416D51C517AB}">
+  <dimension ref="A2:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="38" style="9" customWidth="1"/>
+    <col min="4" max="4" width="29.26171875" customWidth="1"/>
+    <col min="5" max="5" width="23.578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1215</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>3881</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>3883</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>6029</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>17684</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>199</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>7706</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>1730</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>8689</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>1805</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>8685</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9">
+        <v>1930</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>8692</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10">
+        <v>2100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>3006</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>3007</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>3005</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>17684</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>199</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>1527</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15">
+        <v>495</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>2722</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16">
+        <v>2520</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>17577</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17">
+        <v>2520</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>17589</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <v>2765</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>17651</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19">
+        <v>2890</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>17609</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20">
+        <v>3025</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>81</v>
+      </c>
+      <c r="B21">
+        <v>17681</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <v>3149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>82</v>
+      </c>
+      <c r="B22">
+        <v>17631</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>3529</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>93</v>
+      </c>
+      <c r="B23">
+        <v>664</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23">
+        <v>110</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <v>3881</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <v>3883</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>97</v>
+      </c>
+      <c r="B26">
+        <v>6029</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>98</v>
+      </c>
+      <c r="B27">
+        <v>6030</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>6207</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>6208</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>12466</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>106</v>
+      </c>
+      <c r="B31">
+        <v>12467</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>107</v>
+      </c>
+      <c r="B32">
+        <v>12468</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>108</v>
+      </c>
+      <c r="B33">
+        <v>12469</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <v>12033</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34">
+        <v>399</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>12035</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35">
+        <v>999</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>126</v>
+      </c>
+      <c r="B36">
+        <v>12034</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36">
+        <v>599</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>12037</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37">
+        <v>799</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>129</v>
+      </c>
+      <c r="B38">
+        <v>17697</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38">
+        <v>999</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>130</v>
+      </c>
+      <c r="B39">
+        <v>22835</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39">
+        <v>499</v>
+      </c>
+      <c r="G39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>158</v>
+      </c>
+      <c r="B40">
+        <v>3451</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>160</v>
+      </c>
+      <c r="B41">
+        <v>3560</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
